--- a/2.时间汇总.xlsx
+++ b/2.时间汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JZJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JZJ\OneDrive\A宏文件\代码\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,8 +85,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>13:20</t>
     </r>
@@ -94,8 +96,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>"+RAND()*"</t>
     </r>
@@ -103,8 +107,10 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>0:08</t>
     </r>
@@ -112,8 +118,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">","HH:MM")
 </t>
@@ -125,6 +133,7 @@
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>基础时间</t>
     </r>
@@ -132,8 +141,10 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -144,6 +155,7 @@
         <rFont val="等线"/>
         <family val="2"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>随机延时</t>
     </r>
@@ -186,8 +198,10 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,11 +239,8 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,606 +523,1001 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:W18"/>
+  <dimension ref="A2:AB26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="23" width="8.88671875" style="2"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f ca="1">TEXT("07:47"+RAND()*"0:12","HH:MM")</f>
+        <f ca="1">TEXT("07:53"+RAND()*"0:7","HH:MM")</f>
+        <v>07:58</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f ca="1">TEXT("07:53"+RAND()*"0:7","HH:MM")</f>
+        <v>07:54</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" ref="E2:Y2" ca="1" si="0">TEXT("07:53"+RAND()*"0:7","HH:MM")</f>
+        <v>07:53</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:58</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:54</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
         <v>07:57</v>
       </c>
-      <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:W2" ca="1" si="0">TEXT("07:45"+RAND()*"0:13","HH:MM")</f>
-        <v>07:45</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:46</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="K2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:59</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:57</v>
+      </c>
+      <c r="M2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:53</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="N2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:55</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:48</v>
-      </c>
-      <c r="I2" s="2" t="str">
+      <c r="O2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:53</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:54</v>
+      </c>
+      <c r="Q2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:54</v>
+      </c>
+      <c r="R2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:57</v>
       </c>
-      <c r="J2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:45</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:47</v>
-      </c>
-      <c r="L2" s="2" t="str">
+      <c r="S2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:56</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="T2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:54</v>
+      </c>
+      <c r="U2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:59</v>
+      </c>
+      <c r="V2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:53</v>
       </c>
-      <c r="N2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:45</v>
-      </c>
-      <c r="O2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:57</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:45</v>
-      </c>
-      <c r="Q2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:52</v>
-      </c>
-      <c r="R2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:52</v>
-      </c>
-      <c r="S2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:46</v>
-      </c>
-      <c r="T2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:57</v>
-      </c>
-      <c r="U2" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>07:52</v>
-      </c>
-      <c r="V2" s="2" t="str">
+      <c r="W2" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>07:58</v>
+      </c>
+      <c r="X2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:56</v>
       </c>
-      <c r="W2" s="2" t="str">
+      <c r="Y2" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>07:56</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1">TEXT("11:02"+RAND()*"0:14","HH:MM")</f>
+        <v>11:09</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:X3" ca="1" si="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
         <v>11:02</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:V3" ca="1" si="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
-        <v>11:14</v>
       </c>
       <c r="E3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:04</v>
+        <v>11:06</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:05</v>
+        <v>11:14</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
+        <v>11:15</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11:09</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>11:08</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="L3" s="2" t="str">
+        <f ca="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
+        <v>11:07</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11:15</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f ca="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
+        <v>11:11</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11:10</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11:04</v>
+      </c>
+      <c r="S3" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>11:05</v>
+      </c>
+      <c r="T3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>11:03</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="U3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:02</v>
-      </c>
-      <c r="J3" s="2" t="str">
+        <v>11:12</v>
+      </c>
+      <c r="V3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:11</v>
-      </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:10</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f ca="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
-        <v>11:04</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:13</v>
-      </c>
-      <c r="N3" s="2" t="str">
-        <f ca="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
-        <v>11:15</v>
-      </c>
-      <c r="O3" s="2" t="str">
+        <v>11:06</v>
+      </c>
+      <c r="W3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>11:08</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="X3" s="2" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>11:12</v>
-      </c>
-      <c r="Q3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:05</v>
-      </c>
-      <c r="R3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:06</v>
-      </c>
-      <c r="S3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:11</v>
-      </c>
-      <c r="T3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:04</v>
-      </c>
-      <c r="U3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:15</v>
-      </c>
-      <c r="V3" s="2" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>11:05</v>
-      </c>
-      <c r="W3" s="2" t="str">
+        <v>11:09</v>
+      </c>
+      <c r="Y3" s="2" t="str">
         <f ca="1">TEXT("11:02"+RAND()*"0:14","H:MM")</f>
-        <v>11:03</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+        <v>11:10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
-        <v>13:25</v>
+        <v>13:26</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:W4" ca="1" si="2">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
-        <v>13:20</v>
+        <f t="shared" ref="D4:Y4" ca="1" si="2">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
+        <v>13:27</v>
       </c>
       <c r="E4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13:25</v>
+        <v>13:22</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13:23</v>
+        <v>13:27</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>13:21</v>
-      </c>
-      <c r="H4" s="2" t="str">
+        <v>13:24</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
+        <v>13:22</v>
+      </c>
+      <c r="K4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>13:26</v>
       </c>
-      <c r="I4" s="2" t="str">
+      <c r="L4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>13:23</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="M4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:26</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
+        <v>13:27</v>
+      </c>
+      <c r="Q4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:22</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:26</v>
+      </c>
+      <c r="S4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:26</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:25</v>
+      </c>
+      <c r="U4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:21</v>
+      </c>
+      <c r="V4" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>13:22</v>
+      </c>
+      <c r="W4" s="2" t="str">
         <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
         <v>13:23</v>
       </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:22</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:22</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:25</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
-        <v>13:24</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:21</v>
-      </c>
-      <c r="P4" s="2" t="str">
+      <c r="X4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>13:27</v>
       </c>
-      <c r="Q4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:25</v>
-      </c>
-      <c r="R4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:21</v>
-      </c>
-      <c r="S4" s="2" t="str">
+      <c r="Y4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>13:20</v>
       </c>
-      <c r="T4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:21</v>
-      </c>
-      <c r="U4" s="2" t="str">
-        <f ca="1">TEXT("13:20"+RAND()*"0:08","H:MM")</f>
-        <v>13:20</v>
-      </c>
-      <c r="V4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:20</v>
-      </c>
-      <c r="W4" s="2" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>13:20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
-        <v>17:48</v>
+        <v>17:43</v>
       </c>
       <c r="D5" s="2" t="str">
         <f ca="1">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
-        <v>17:48</v>
+        <v>17:45</v>
       </c>
       <c r="E5" s="2" t="str">
         <f t="shared" ref="E5:M5" ca="1" si="3">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
-        <v>17:42</v>
+        <v>17:49</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:40</v>
+        <v>17:49</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:42</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>17:32</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>17:46</v>
+        <v>17:41</v>
       </c>
       <c r="J5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:40</v>
+        <v>17:48</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:49</v>
+        <v>17:42</v>
       </c>
       <c r="L5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:47</v>
+        <v>17:39</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>17:41</v>
+        <v>17:34</v>
       </c>
       <c r="N5" s="2" t="str">
         <f ca="1">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
+        <v>17:47</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f ca="1">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
+        <v>17:36</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f t="shared" ref="R5:Y5" ca="1" si="4">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
         <v>17:44</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f ca="1">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
-        <v>17:38</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" ref="P5:W5" ca="1" si="4">TEXT("17:32"+RAND()*"0:18","H:MM")</f>
-        <v>17:41</v>
-      </c>
-      <c r="Q5" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>17:39</v>
-      </c>
-      <c r="R5" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>17:36</v>
       </c>
       <c r="S5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>17:37</v>
+        <v>17:40</v>
       </c>
       <c r="T5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>17:40</v>
+        <v>17:33</v>
       </c>
       <c r="U5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>17:35</v>
+        <v>17:45</v>
       </c>
       <c r="V5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>17:40</v>
+        <v>17:49</v>
       </c>
       <c r="W5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>17:41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17:45</v>
+      </c>
+      <c r="X5" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>17:34</v>
+      </c>
+      <c r="Y5" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>17:38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="str">
         <f ca="1">CONCATENATE(C2,CHAR(10),C3,CHAR(10),C4,CHAR(10),C5)</f>
-        <v>07:57
-11:02
-13:25
-17:48</v>
+        <v>07:58
+11:09
+13:26
+17:43</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" ref="D6:L6" ca="1" si="5">CONCATENATE(D2,CHAR(10),D3,CHAR(10),D4,CHAR(10),D5)</f>
-        <v>07:45
-11:14
-13:20
-17:48</v>
+        <v>07:54
+11:02
+13:27
+17:45</v>
       </c>
       <c r="E6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>07:46
-11:04
-13:25
-17:42</v>
+        <v>07:53
+11:06
+13:22
+17:49</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>07:53
-11:05
-13:23
-17:40</v>
+        <v>07:58
+11:14
+13:27
+17:49</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>07:55
-11:08
-13:21
-17:42</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>07:48
-11:03
-13:26
-17:32</v>
-      </c>
-      <c r="I6" s="3" t="str">
+        <v>07:54
+11:15
+13:24
+17:41</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>07:57
-11:02
-13:23
-17:46</v>
-      </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>07:45
-11:11
-13:23
-17:40</v>
+11:09
+13:22
+17:48</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>07:47
-11:10
-13:22
-17:49</v>
+        <f ca="1">CONCATENATE(K2,CHAR(10),K3,CHAR(10),K4,CHAR(10),K5)</f>
+        <v>07:59
+11:08
+13:26
+17:42</v>
       </c>
       <c r="L6" s="3" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>07:56
-11:04
-13:22
-17:47</v>
+        <v>07:57
+11:07
+13:23
+17:39</v>
       </c>
       <c r="M6" s="3" t="str">
         <f ca="1">CONCATENATE(M2,CHAR(10),M3,CHAR(10),M4,CHAR(10),M5)</f>
         <v>07:53
-11:13
-13:25
-17:41</v>
+11:15
+13:26
+17:34</v>
       </c>
       <c r="N6" s="3" t="str">
         <f ca="1">CONCATENATE(N2,CHAR(10),N3,CHAR(10),N4,CHAR(10),N5)</f>
-        <v>07:45
-11:15
-13:24
-17:44</v>
-      </c>
-      <c r="O6" s="3" t="str">
-        <f ca="1">CONCATENATE(O2,CHAR(10),O3,CHAR(10),O4,CHAR(10),O5)</f>
-        <v>07:57
-11:08
-13:21
-17:38</v>
-      </c>
-      <c r="P6" s="3" t="str">
-        <f t="shared" ref="P6:W6" ca="1" si="6">CONCATENATE(P2,CHAR(10),P3,CHAR(10),P4,CHAR(10),P5)</f>
-        <v>07:45
-11:12
+        <v>07:55
+11:11
 13:27
-17:41</v>
-      </c>
+17:47</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>07:52
-11:05
-13:25
-17:39</v>
+        <f ca="1">CONCATENATE(Q2,CHAR(10),Q3,CHAR(10),Q4,CHAR(10),Q5)</f>
+        <v>07:54
+11:10
+13:22
+17:36</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>07:52
-11:06
-13:21
-17:36</v>
-      </c>
-      <c r="S6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>07:46
-11:11
-13:20
-17:37</v>
-      </c>
-      <c r="T6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="R6:Y6" ca="1" si="6">CONCATENATE(R2,CHAR(10),R3,CHAR(10),R4,CHAR(10),R5)</f>
         <v>07:57
 11:04
-13:21
-17:40</v>
-      </c>
-      <c r="U6" s="3" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>07:52
-11:15
-13:20
-17:35</v>
-      </c>
-      <c r="V6" s="3" t="str">
+13:26
+17:44</v>
+      </c>
+      <c r="S6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
         <v>07:56
 11:05
-13:20
+13:26
 17:40</v>
+      </c>
+      <c r="T6" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>07:54
+11:03
+13:25
+17:33</v>
+      </c>
+      <c r="U6" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>07:59
+11:12
+13:21
+17:45</v>
+      </c>
+      <c r="V6" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>07:53
+11:06
+13:22
+17:49</v>
       </c>
       <c r="W6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
+        <v>07:58
+11:08
+13:23
+17:45</v>
+      </c>
+      <c r="X6" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>07:56
-11:03
+11:09
+13:27
+17:34</v>
+      </c>
+      <c r="Y6" s="3" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>07:56
+11:10
 13:20
-17:41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+17:38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
       <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1119,6 +1525,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>